--- a/biology/Histoire de la zoologie et de la botanique/Roland_F._Hussey/Roland_F._Hussey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Roland_F._Hussey/Roland_F._Hussey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roland Fountain Hussey (1896-1967) est un entomologiste américain, et un hétéroptériste, c'est-à-dire un spécialiste des hétéroptères (punaises), en particulier des punaises aquatiques.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Roland F. Hussey est né à San Francisco (Californie) le 16 novembre 1896 et mort le 19 août 1967 à Gainesville (Floride)[1]. Sa tombe est au cimetière de Forest Hill, à Ann Arbor (Michigan)[2]. 
-Il a occupé des postes universitaires à l'Université de New-York, au Florida Southern College et à l'Université de Floride, dont il fut le premier professeur émérite de biologie[1]. Sa correspondance et ses notes de recherches de 1924 à 1963 sont conservée aux Archives de l'Université de Floride[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roland F. Hussey est né à San Francisco (Californie) le 16 novembre 1896 et mort le 19 août 1967 à Gainesville (Floride). Sa tombe est au cimetière de Forest Hill, à Ann Arbor (Michigan). 
+Il a occupé des postes universitaires à l'Université de New-York, au Florida Southern College et à l'Université de Floride, dont il fut le premier professeur émérite de biologie. Sa correspondance et ses notes de recherches de 1924 à 1963 sont conservée aux Archives de l'Université de Floride.
 </t>
         </is>
       </c>
@@ -543,19 +557,12 @@
           <t>Travaux et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parmi ses travaux notables, il a publié en 1929 un Catalogue des Pyrrhocoridae, qui contiennent à cette époque également les Largidae. Il a travaillé notamment sur les hémiptères aquatiques tels que Hydrometra, Notonecta, Gerris, Metrobates, Microvelia, Belostoma, Rhagovelia, mais également sur les Coreidae, les Reduviidae, et, dès les années 50, sur les Miridae. Sa vie compte 62 publications scientifiques[1], dont un certain nombre est consultable sur internet[4]. 
-Taxons décrits
-Parmi les taxons décrits par Roland F. Hussey, on peut mentionner :
-Aradus subruficeps (Aradidae)[5]
-Gerris alacris (Gerridae)[6]
-Hoplistoscelis hubbelli (Nabidae)[5]
-genre Limnobatodes (Hydrometridae)[7], et l'espèce Limnobatodes paradoxus
-Macrocephalus vorax (Reduviidae)[5]
-Mozena buenoi (Coreidae)
-Notonecta borealis (Notonectidae), avec J. R. de la Torre-Bueno[8]
-sous-genre Parapagasa (Nabidae), et l'espèce Parasa (Parapagasa) insepctata[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi ses travaux notables, il a publié en 1929 un Catalogue des Pyrrhocoridae, qui contiennent à cette époque également les Largidae. Il a travaillé notamment sur les hémiptères aquatiques tels que Hydrometra, Notonecta, Gerris, Metrobates, Microvelia, Belostoma, Rhagovelia, mais également sur les Coreidae, les Reduviidae, et, dès les années 50, sur les Miridae. Sa vie compte 62 publications scientifiques, dont un certain nombre est consultable sur internet. 
+</t>
         </is>
       </c>
     </row>
@@ -580,12 +587,58 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux et publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons décrits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Parmi les taxons décrits par Roland F. Hussey, on peut mentionner :
+Aradus subruficeps (Aradidae)
+Gerris alacris (Gerridae)
+Hoplistoscelis hubbelli (Nabidae)
+genre Limnobatodes (Hydrometridae), et l'espèce Limnobatodes paradoxus
+Macrocephalus vorax (Reduviidae)
+Mozena buenoi (Coreidae)
+Notonecta borealis (Notonectidae), avec J. R. de la Torre-Bueno
+sous-genre Parapagasa (Nabidae), et l'espèce Parasa (Parapagasa) insepctata</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Roland_F._Hussey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Roland_F._Hussey</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxons nommés en son hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un genre et une douzaine d'espèces ont été nommées en son hommage[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un genre et une douzaine d'espèces ont été nommées en son hommage :
 Barce husseyi Wygodzinsky, 1966 (Reduviidae)
 Belostoma husseyi De Carlo, 1960, aujourd'hui synonyme d'Belostoma micantulum (Stål, 1860) (Belostomatidae)
 Ceratocapsus husseyi Knight, 1930 (Miridae)
